--- a/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
+++ b/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26550" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,36 +19,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作階段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造訪數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單次造訪頁數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳出率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均停留時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -93,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,37 +374,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>42151</v>
       </c>
@@ -403,8 +429,20 @@
       <c r="C2" s="2">
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="2">
+        <v>1111</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2111</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12.34</v>
+      </c>
+      <c r="G2" s="2">
+        <v>78.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>42152</v>
       </c>
@@ -414,50 +452,42 @@
       <c r="C3" s="2">
         <v>1589</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>42153</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2308</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>42154</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2311</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>42155</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2314</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>42156</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2317</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1597</v>
-      </c>
+      <c r="D3" s="2">
+        <v>1112</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3111</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45.67</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
+++ b/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
@@ -92,7 +92,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -100,6 +100,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -374,7 +377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -385,7 +388,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -393,7 +396,8 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="18.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -412,10 +416,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -435,10 +439,10 @@
       <c r="E2" s="2">
         <v>2111</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>12.34</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>78.58</v>
       </c>
     </row>
@@ -458,10 +462,10 @@
       <c r="E3" s="2">
         <v>3111</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>45.67</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>36.590000000000003</v>
       </c>
     </row>

--- a/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
+++ b/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
@@ -92,17 +92,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,38 +391,39 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -427,22 +431,22 @@
       <c r="A2" s="1">
         <v>42151</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2302</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1500</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1111</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2111</v>
       </c>
       <c r="F2" s="3">
         <v>12.34</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>78.58</v>
       </c>
     </row>
@@ -450,51 +454,57 @@
       <c r="A3" s="1">
         <v>42152</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2305</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>1589</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1112</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>3111</v>
       </c>
       <c r="F3" s="3">
         <v>45.67</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>36.590000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="介於0~100" sqref="F1:F1048576">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~2147483647的整數" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~2147483647" sqref="G1:G1048576">
+      <formula1>0</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~2147483647的整數" sqref="B1:B1048576 C1:C1048576 D1:D1048576">
+      <formula1>0</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
+++ b/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
@@ -380,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,9 +492,9 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~2147483647的整數" sqref="E1:E1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~99999999的整數" sqref="E1:E1048576">
       <formula1>0</formula1>
-      <formula2>2147483647</formula2>
+      <formula2>99999999</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~2147483647" sqref="G1:G1048576">
       <formula1>0</formula1>

--- a/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
+++ b/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
@@ -92,14 +92,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -380,7 +377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,39 +388,39 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="16.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="18.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -431,22 +428,22 @@
       <c r="A2" s="1">
         <v>42151</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2302</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1500</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1111</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2111</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>12.34</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>78.58</v>
       </c>
     </row>
@@ -454,22 +451,22 @@
       <c r="A3" s="1">
         <v>42152</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2305</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1589</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1112</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>3111</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>45.67</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>36.590000000000003</v>
       </c>
     </row>

--- a/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
+++ b/Admin.gigade/Template/SiteAnalytics/SiteAnalytics.xlsx
@@ -45,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均停留時間</t>
+    <t>平均停留時間(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,14 +92,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -377,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,39 +385,39 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="16.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="16.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -428,22 +425,22 @@
       <c r="A2" s="1">
         <v>42151</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2302</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1500</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1111</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2111</v>
       </c>
       <c r="F2" s="2">
-        <v>12.34</v>
-      </c>
-      <c r="G2" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="G2" s="2">
         <v>78.58</v>
       </c>
     </row>
@@ -451,22 +448,22 @@
       <c r="A3" s="1">
         <v>42152</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2305</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1589</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1112</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>3111</v>
       </c>
       <c r="F3" s="2">
-        <v>45.67</v>
-      </c>
-      <c r="G3" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G3" s="2">
         <v>36.590000000000003</v>
       </c>
     </row>
@@ -485,9 +482,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="介於0~100" sqref="F1:F1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="介於0~0.99999999" sqref="F1:F1048576">
       <formula1>0</formula1>
-      <formula2>100</formula2>
+      <formula2>0.99999999</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="該值必須介於0~99999999的整數" sqref="E1:E1048576">
       <formula1>0</formula1>
